--- a/outputs-HGR-r202/test-g__F0040_split_pruned.xlsx
+++ b/outputs-HGR-r202/test-g__F0040_split_pruned.xlsx
@@ -14,21 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Row</t>
   </si>
   <si>
-    <t>even_MAG-GUT43377.fa</t>
-  </si>
-  <si>
     <t>even_MAG-GUT59149.fa</t>
-  </si>
-  <si>
-    <t>even_MAG-GUT76518.fa</t>
-  </si>
-  <si>
-    <t>even_MAG-GUT78579.fa</t>
   </si>
   <si>
     <t>1-s__F0040 sp900095835</t>
@@ -82,10 +73,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C2"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" customWidth="true"/>
+    <col min="1" max="1" width="5" customWidth="true"/>
     <col min="2" max="2" width="22.140625" customWidth="true"/>
     <col min="3" max="3" width="10.28515625" customWidth="true"/>
   </cols>
@@ -95,10 +86,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2">
@@ -106,42 +97,9 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
         <v>1</v>
       </c>
     </row>
